--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H2">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>68.35021097880245</v>
+        <v>31.76721904946533</v>
       </c>
       <c r="R2">
-        <v>615.151898809222</v>
+        <v>285.904971445188</v>
       </c>
       <c r="S2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="T2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.720663999999999</v>
+        <v>7.720664</v>
       </c>
       <c r="H3">
         <v>23.161992</v>
       </c>
       <c r="I3">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J3">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>88.92067333493866</v>
+        <v>88.92067333493867</v>
       </c>
       <c r="R3">
-        <v>800.2860600144479</v>
+        <v>800.286060014448</v>
       </c>
       <c r="S3">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="T3">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.601191</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H4">
-        <v>16.803573</v>
+        <v>11.631127</v>
       </c>
       <c r="I4">
-        <v>0.2908733585464604</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J4">
-        <v>0.2908733585464603</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>64.51021248918467</v>
+        <v>44.65279344212644</v>
       </c>
       <c r="R4">
-        <v>580.5919124026619</v>
+        <v>401.8751409791379</v>
       </c>
       <c r="S4">
-        <v>0.2908733585464604</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="T4">
-        <v>0.2908733585464603</v>
+        <v>0.2700653696874982</v>
       </c>
     </row>
   </sheetData>
